--- a/src/main/resources/files/markers.xlsx
+++ b/src/main/resources/files/markers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI\ai_introduction\src\main\resources\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0787615a65bebdbd/Creative Cloud Files/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F9E314-6FC9-4964-A6AE-02FCDE059758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_47FF8324C889BA77F8610215C8D7B993A12CB369" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67B97F1D-43C9-4ABB-B8A2-73B4E069F0F8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1445,13 +1445,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A134" sqref="A134:XFD134"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="A134" activeCellId="1" sqref="A135:XFD135 A134:XFD134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>27</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>29</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>30</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>31</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>32</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>33</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>34</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>35</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>36</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>37</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>38</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>39</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>40</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>41</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>42</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>43</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>44</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>45</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>46</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>47</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>48</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>49</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>50</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>51</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>52</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>53</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>54</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>55</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>56</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>57</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>58</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>59</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>60</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>61</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>62</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>63</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>64</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>65</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>66</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>67</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>68</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>69</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>70</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>71</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>72</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>73</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>74</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>75</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>76</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>77</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>78</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>79</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>80</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>81</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>82</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>83</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>84</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>85</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>86</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>87</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>88</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>89</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>90</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>91</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>92</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>93</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>94</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>95</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>96</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>97</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>98</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>99</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>100</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>101</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>102</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>103</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>104</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>105</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>106</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>107</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>108</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>109</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>110</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>111</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>112</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>113</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>114</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>115</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>116</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>117</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>118</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>119</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>120</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>121</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>122</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>123</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>124</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>125</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>126</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>127</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>128</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>129</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>130</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>131</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>132</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>133</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>136</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>137</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>138</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>139</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>140</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>141</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>142</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>143</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>144</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>145</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>146</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>147</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>148</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>149</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>150</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>151</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>152</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>153</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>154</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>155</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>156</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>157</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>158</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>159</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>160</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>161</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>162</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>163</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>164</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>165</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>166</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>167</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>168</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>169</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>170</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>171</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>172</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>173</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>174</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>175</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>176</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>177</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>178</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>179</v>
       </c>
